--- a/utils/frontend_test.xlsx
+++ b/utils/frontend_test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Projektmanagement\yourChoiceHO\Documentation\Feindesign\csv-mockup\frontend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\projects\your-choice\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="voter" sheetId="1" r:id="rId1"/>
@@ -792,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1161,31 @@
       </c>
       <c r="E21">
         <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>3754085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>3756206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>3765388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>3813034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>3873915</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/utils/frontend_test.xlsx
+++ b/utils/frontend_test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\projects\your-choice\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarik\OneDrive\Dokumente\Studium\5.Semester_WS1718\frontend\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9361DA41-D97F-4529-B2A5-5EF380758B39}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="voter" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="156">
   <si>
     <t>last_name</t>
   </si>
@@ -234,60 +235,6 @@
     <t>Lagerstroemia indica L.</t>
   </si>
   <si>
-    <t>Stanleya elata M.E. Jones</t>
-  </si>
-  <si>
-    <t>Schiedea diffusa A. Gray</t>
-  </si>
-  <si>
-    <t>Pterogonium gracile (Hedw.) Sm.</t>
-  </si>
-  <si>
-    <t>Aegilops speltoides Tausch</t>
-  </si>
-  <si>
-    <t>Pseudocryphaea domingensis (Spreng.) W.R. Buck</t>
-  </si>
-  <si>
-    <t>Eriogonum umbellatum Torr. var. nevadense Gandog.</t>
-  </si>
-  <si>
-    <t>Melaleuca wilsonii F. Muell.</t>
-  </si>
-  <si>
-    <t>Erigeron purpuratus Greene var. purpuratus</t>
-  </si>
-  <si>
-    <t>Caloplaca cerina (Ehrh. ex Hedwig) Th. Fr.</t>
-  </si>
-  <si>
-    <t>Phaeophyscia orbicularis (Neck.) Moberg</t>
-  </si>
-  <si>
-    <t>Psathyrotopsis Rydb.</t>
-  </si>
-  <si>
-    <t>Ichnanthus pallens (Sw.) Munro ex Benth. var. pallens</t>
-  </si>
-  <si>
-    <t>Cryptantha micrantha (Torr.) I.M. Johnst. var. micrantha</t>
-  </si>
-  <si>
-    <t>Leptogium rivale Tuck.</t>
-  </si>
-  <si>
-    <t>Pedilanthus tithymaloides (L.) Poit. ssp. padifolius (L.) Dressler</t>
-  </si>
-  <si>
-    <t>Cynoglossum furcatum Wall. ex Roxb.</t>
-  </si>
-  <si>
-    <t>Brachythecium holzingeri (Grout) Grout</t>
-  </si>
-  <si>
-    <t>Pohlia cardotii (Renauld) Broth.</t>
-  </si>
-  <si>
     <t>party</t>
   </si>
   <si>
@@ -439,12 +386,126 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Kommunalwahl</t>
+  </si>
+  <si>
+    <t>Buergermeisterwahl</t>
+  </si>
+  <si>
+    <t>Landtagswahl</t>
+  </si>
+  <si>
+    <t>Referendum</t>
+  </si>
+  <si>
+    <t>2018-05-05T12:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-07-03T18:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-05-30T12:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-07-28T18:00:00.000Z</t>
+  </si>
+  <si>
+    <t>Wahl 3</t>
+  </si>
+  <si>
+    <t>Wahl 4</t>
+  </si>
+  <si>
+    <t>Wahl 5</t>
+  </si>
+  <si>
+    <t>Wahl 6</t>
+  </si>
+  <si>
+    <t>Evangelos</t>
+  </si>
+  <si>
+    <t>Nikolaropoulos</t>
+  </si>
+  <si>
+    <t>Josua</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Tobin</t>
+  </si>
+  <si>
+    <t>Hauss</t>
+  </si>
+  <si>
+    <t>Choinowski</t>
+  </si>
+  <si>
+    <t>Tarik</t>
+  </si>
+  <si>
+    <t>Bozdemir</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Richard </t>
+  </si>
+  <si>
+    <t>Robert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael </t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel </t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Walters</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Barber</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>Ross</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -791,22 +852,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,10 +881,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -840,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -874,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -891,7 +952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -908,7 +969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -925,7 +986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -942,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -959,7 +1020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -976,7 +1037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -993,7 +1054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1010,7 +1071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1027,7 +1088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1044,7 +1105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1061,7 +1122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1078,7 +1139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1095,7 +1156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1112,7 +1173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1129,7 +1190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1146,7 +1207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1163,29 +1224,89 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
       <c r="C22">
         <v>3754085</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
       <c r="C23">
         <v>3756206</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
       <c r="C24">
         <v>3765388</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
       <c r="C25">
         <v>3813034</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>55</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
       <c r="C26">
         <v>3873915</v>
+      </c>
+      <c r="D26">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1194,38 +1315,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1234,45 +1355,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1280,22 +1401,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1303,19 +1424,111 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1324,23 +1537,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1348,19 +1561,19 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1371,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1388,375 +1601,15 @@
         <v>55</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5">
-        <v>55</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6">
-        <v>55</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>55</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>55</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9">
-        <v>55</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10">
-        <v>55</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11">
-        <v>55</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <v>55</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13">
-        <v>55</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14">
-        <v>55</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15">
-        <v>55</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16">
-        <v>55</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17">
-        <v>55</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18">
-        <v>55</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19">
-        <v>55</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20">
-        <v>55</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21">
-        <v>55</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -1767,24 +1620,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1792,36 +1645,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
       <c r="D2" s="2">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1836,18 +1689,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1862,18 +1715,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1888,18 +1741,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1914,18 +1767,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1940,18 +1793,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1966,18 +1819,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1992,18 +1845,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -2018,89 +1871,629 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="2">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="2">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="2">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="2">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>63</v>
+      </c>
+      <c r="H13" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="2">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>60</v>
+      </c>
+      <c r="H14" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="2">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>61</v>
+      </c>
+      <c r="H15" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="2">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>62</v>
+      </c>
+      <c r="H16" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="2">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>63</v>
+      </c>
+      <c r="H17" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="2">
+        <v>55</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="2">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>61</v>
+      </c>
+      <c r="H19" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="2">
+        <v>55</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>62</v>
+      </c>
+      <c r="H20" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="2">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2">
+        <v>63</v>
+      </c>
+      <c r="H21" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="2">
+        <v>55</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>60</v>
+      </c>
+      <c r="H22" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="2">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>61</v>
+      </c>
+      <c r="H23" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="2">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>62</v>
+      </c>
+      <c r="H24" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="2">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>63</v>
+      </c>
+      <c r="H25" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="2">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>60</v>
+      </c>
+      <c r="H26" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="2">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>61</v>
+      </c>
+      <c r="H27" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="2">
+        <v>55</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>62</v>
+      </c>
+      <c r="H28" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="2">
+        <v>55</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>63</v>
+      </c>
+      <c r="H29" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="2">
+        <v>55</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>60</v>
+      </c>
+      <c r="H30" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="2">
+        <v>55</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>61</v>
+      </c>
+      <c r="H31" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="2">
+        <v>55</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>62</v>
+      </c>
+      <c r="H32" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="2">
+        <v>55</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>63</v>
+      </c>
+      <c r="H33" s="2">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2109,23 +2502,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
         <v>64</v>
@@ -2134,24 +2527,24 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -2163,15 +2556,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>51</v>
@@ -2183,15 +2576,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>52</v>
@@ -2203,15 +2596,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>53</v>
@@ -2223,15 +2616,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -2243,15 +2636,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>51</v>
@@ -2263,15 +2656,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>52</v>
@@ -2283,15 +2676,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>53</v>
@@ -2300,6 +2693,326 @@
         <v>3</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>52</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>53</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>51</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>0</v>
       </c>
     </row>
@@ -2309,24 +3022,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2334,7 +3047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2348,37 +3061,37 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
       <c r="E1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2386,16 +3099,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2403,16 +3116,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2420,10 +3133,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>0</v>
